--- a/data/trans_orig/P41C1_AOS_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41C1_AOS_2023_R-Estudios-trans_orig.xlsx
@@ -612,7 +612,7 @@
         <v>3.727558243491208</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.244353297230556</v>
+        <v>4.244353297230557</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>3.964241218137615</v>
@@ -626,13 +626,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.536006613568624</v>
+        <v>2.507608686073612</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.486141660855745</v>
+        <v>2.61001482509469</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.889471233380199</v>
+        <v>2.833010608662887</v>
       </c>
     </row>
     <row r="9">
@@ -643,13 +643,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.293448751535594</v>
+        <v>6.20487210910675</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.866174807198751</v>
+        <v>6.812799649600167</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.678428831366404</v>
+        <v>5.774470455789663</v>
       </c>
     </row>
     <row r="10">
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.148936659062353</v>
+        <v>1.157650890754026</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.723639798889312</v>
+        <v>1.738105660379809</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.599752425174872</v>
+        <v>1.564555236918765</v>
       </c>
     </row>
     <row r="12">
@@ -698,13 +698,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.003884570353891</v>
+        <v>3.085107101680094</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.118717133607357</v>
+        <v>4.045063268162427</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.115761401954081</v>
+        <v>3.077159469807801</v>
       </c>
     </row>
     <row r="13">
@@ -722,10 +722,10 @@
         <v>2.93362312337045</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3.394675804106369</v>
+        <v>3.394675804106368</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3.168325397167558</v>
+        <v>3.168325397167559</v>
       </c>
     </row>
     <row r="14">
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.006168497700266</v>
+        <v>1.984211764405174</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.436036424404034</v>
+        <v>2.488965177101705</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.461300903707347</v>
+        <v>2.431437999789246</v>
       </c>
     </row>
     <row r="15">
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.486115380737616</v>
+        <v>4.594934039184221</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.896920965576298</v>
+        <v>5.024845010256515</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.156259457898665</v>
+        <v>4.286037512241818</v>
       </c>
     </row>
     <row r="16">
